--- a/bin/config/xlsx/Reward.xlsx
+++ b/bin/config/xlsx/Reward.xlsx
@@ -983,10 +983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1132,6 +1132,40 @@
         <v>2</v>
       </c>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
